--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\digvijayt\PycharmProjects\Python_Practice\Python_Read_Write\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\digvi\PycharmProjects\Py_Sel_Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE00F04-309F-4FB7-B46A-F1F6DBBCDEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
   <si>
     <t>username</t>
   </si>
@@ -68,16 +69,19 @@
     <t>T1</t>
   </si>
   <si>
+    <t>T3</t>
+  </si>
+  <si>
     <t>T2</t>
   </si>
   <si>
-    <t>T3</t>
+    <t>SSSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -388,11 +392,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -442,13 +446,13 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -462,7 +466,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>

--- a/TestData/TestData.xlsx
+++ b/TestData/TestData.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\digvi\PycharmProjects\Py_Sel_Framework\TestData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\digvijayt\PycharmProjects\Py_Sel_Framework\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FE00F04-309F-4FB7-B46A-F1F6DBBCDEE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9075"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="16">
   <si>
     <t>username</t>
   </si>
@@ -69,19 +68,16 @@
     <t>T1</t>
   </si>
   <si>
+    <t>T2</t>
+  </si>
+  <si>
     <t>T3</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>SSSS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,19 +388,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
@@ -424,7 +421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -444,15 +441,15 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>7</v>
@@ -464,9 +461,9 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>11</v>
